--- a/answer.xlsx
+++ b/answer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.0000</t>
+          <t>15.0000</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.0000</t>
+          <t>18.0000</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18.0000</t>
+          <t>24.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>33.0000</t>
         </is>
       </c>
     </row>

--- a/answer.xlsx
+++ b/answer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>89/6</t>
+          <t>9*6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.8333</t>
+          <t>54.0000</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>89/625*6</t>
+          <t>9*63+6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8544</t>
+          <t>573.0000</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,282 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>89/625*696/63</t>
+          <t>9*63+6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5732</t>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9*63+6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>573.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9*63+666666666666*666666666</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>444444443999555551232.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9*63+666666666666*6666666666-55555555*0+33333*666666666</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4444444466217555591168.0000</t>
         </is>
       </c>
     </row>

--- a/answer.xlsx
+++ b/answer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,312 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9*6</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>54.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>9*63+6</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>573.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>9*63+666666666666*666666666</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>444444443999555551232.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>9*63+666666666666*6666666666-55555555*0+33333*666666666</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4444444466217555591168.0000</t>
+          <t>7.0000</t>
         </is>
       </c>
     </row>

--- a/answer.xlsx
+++ b/answer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>结果</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>计算式</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>结果</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,102 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>18.0000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.0000</t>
+          <t>2*9</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2.7000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.3*9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-1.0000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-1.0000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(5-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9.9742</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>exp(2.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.9933</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>log(2.7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2-log(exp(2))</t>
         </is>
       </c>
     </row>
